--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -4,53 +4,53 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" firstSheet="9" activeTab="12"/>
+    <workbookView activeTab="12" firstSheet="9" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_ProrataMonth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctorAsProraApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_ProrataMonth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctorAsProraMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_ProrataMonth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctorAsProraJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_ProrataMonth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctorAsProraJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_ProrataMonth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctorAsProraAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_ProrataMonth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctorAsProraSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
-    <sheet name="NIDirector_ProrataMonth7" sheetId="33" r:id="rId20"/>
-    <sheet name="PayrollForNIDirctorAsProraOct" sheetId="13" r:id="rId21"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
-    <sheet name="NIDirector_ProrataMonth8" sheetId="34" r:id="rId23"/>
-    <sheet name="PayrollForNIDirctorAsProraNov" sheetId="14" r:id="rId24"/>
-    <sheet name="TestReportsNovember" sheetId="23" r:id="rId25"/>
-    <sheet name="NIDirector_ProrataMonth9" sheetId="35" r:id="rId26"/>
-    <sheet name="PayrollForNIDirctorAsProraDec" sheetId="15" r:id="rId27"/>
-    <sheet name="TestReportsDecember" sheetId="24" r:id="rId28"/>
-    <sheet name="NIDirector_ProrataMonth10" sheetId="36" r:id="rId29"/>
-    <sheet name="PayrollForNIDirctorAsProraJan" sheetId="16" r:id="rId30"/>
-    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId31"/>
-    <sheet name="NIDirector_ProrataMonth11" sheetId="37" r:id="rId32"/>
-    <sheet name="PayrollForNIDirctorAsProraFeb" sheetId="17" r:id="rId33"/>
-    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId34"/>
-    <sheet name="NIDirector_ProrataMonth12" sheetId="4" r:id="rId35"/>
-    <sheet name="PayrollForNIDirctorAsProraMarch" sheetId="18" r:id="rId36"/>
-    <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_ProrataMonth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctorAsProraApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_ProrataMonth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctorAsProraMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_ProrataMonth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctorAsProraJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_ProrataMonth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctorAsProraJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_ProrataMonth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctorAsProraAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_ProrataMonth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctorAsProraSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
+    <sheet name="NIDirector_ProrataMonth7" r:id="rId20" sheetId="33"/>
+    <sheet name="PayrollForNIDirctorAsProraOct" r:id="rId21" sheetId="13"/>
+    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
+    <sheet name="NIDirector_ProrataMonth8" r:id="rId23" sheetId="34"/>
+    <sheet name="PayrollForNIDirctorAsProraNov" r:id="rId24" sheetId="14"/>
+    <sheet name="TestReportsNovember" r:id="rId25" sheetId="23"/>
+    <sheet name="NIDirector_ProrataMonth9" r:id="rId26" sheetId="35"/>
+    <sheet name="PayrollForNIDirctorAsProraDec" r:id="rId27" sheetId="15"/>
+    <sheet name="TestReportsDecember" r:id="rId28" sheetId="24"/>
+    <sheet name="NIDirector_ProrataMonth10" r:id="rId29" sheetId="36"/>
+    <sheet name="PayrollForNIDirctorAsProraJan" r:id="rId30" sheetId="16"/>
+    <sheet name="TestReportsJanuary" r:id="rId31" sheetId="25"/>
+    <sheet name="NIDirector_ProrataMonth11" r:id="rId32" sheetId="37"/>
+    <sheet name="PayrollForNIDirctorAsProraFeb" r:id="rId33" sheetId="17"/>
+    <sheet name="TestReportsFebruary" r:id="rId34" sheetId="26"/>
+    <sheet name="NIDirector_ProrataMonth12" r:id="rId35" sheetId="4"/>
+    <sheet name="PayrollForNIDirctorAsProraMarch" r:id="rId36" sheetId="18"/>
+    <sheet name="TestReportsMarch" r:id="rId37" sheetId="27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="115">
   <si>
     <t>TC</t>
   </si>
@@ -401,6 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,52 +449,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +508,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -668,7 +669,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -677,13 +678,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -693,7 +694,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -702,7 +703,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -711,7 +712,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -721,12 +722,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -757,7 +758,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -776,7 +777,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -788,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -797,10 +798,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -831,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -845,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -859,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -873,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -887,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -901,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="19.8" r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -915,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -929,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -943,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="25.8" r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -957,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -971,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -985,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="23.4" r="20" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="23" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="24" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="25" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27" r="26" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="28" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="22.8" r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="30" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="31" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="33" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="34" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="36" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="22.8" r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
@@ -1336,13 +1337,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1351,20 +1352,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1451,15 +1452,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1468,14 +1469,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -1528,12 +1529,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1542,20 +1543,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1633,14 +1634,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1649,21 +1650,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1747,15 +1748,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1764,16 +1765,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -1826,12 +1827,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1840,19 +1841,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1930,14 +1931,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1946,20 +1947,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2043,15 +2044,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2060,13 +2061,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2119,12 +2120,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,19 +2134,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2223,14 +2224,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2239,21 +2240,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2337,15 +2338,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2354,14 +2355,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2415,13 +2416,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,15 +2431,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2491,12 +2492,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2505,19 +2506,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2595,14 +2596,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2611,20 +2612,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2708,15 +2709,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,15 +2726,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2786,12 +2787,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,19 +2801,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2890,14 +2891,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2906,20 +2907,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3003,15 +3004,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3020,15 +3021,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3081,12 +3082,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3095,19 +3096,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3185,14 +3186,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3201,20 +3202,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3298,15 +3299,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3315,15 +3316,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3376,12 +3377,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3390,19 +3391,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3480,14 +3481,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3496,19 +3497,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3586,14 +3587,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3602,20 +3603,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3699,15 +3700,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3716,15 +3717,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3777,12 +3778,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3791,20 +3792,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3882,14 +3883,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,20 +3899,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3995,15 +3996,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,17 +4013,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4078,13 +4079,13 @@
       <c r="D4" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4093,19 +4094,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4183,14 +4184,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -4199,21 +4200,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4297,15 +4298,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4314,20 +4315,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4411,14 +4412,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4427,15 +4428,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4486,12 +4487,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4500,19 +4501,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4590,14 +4591,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4606,21 +4607,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4704,14 +4705,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4720,16 +4721,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4782,13 +4783,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4797,19 +4798,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4887,8 +4888,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -1,56 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="9" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIDirector_ProrataMonth1" r:id="rId2" sheetId="2"/>
-    <sheet name="PayrollForNIDirctorAsProraApril" r:id="rId3" sheetId="3"/>
-    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
-    <sheet name="NIDirector_ProrataMonth2" r:id="rId5" sheetId="28"/>
-    <sheet name="PayrollForNIDirctorAsProraMay" r:id="rId6" sheetId="7"/>
-    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
-    <sheet name="NIDirector_ProrataMonth3" r:id="rId8" sheetId="29"/>
-    <sheet name="PayrollForNIDirctorAsProraJune" r:id="rId9" sheetId="9"/>
-    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
-    <sheet name="NIDirector_ProrataMonth4" r:id="rId11" sheetId="30"/>
-    <sheet name="PayrollForNIDirctorAsProraJuly" r:id="rId12" sheetId="10"/>
-    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
-    <sheet name="NIDirector_ProrataMonth5" r:id="rId14" sheetId="31"/>
-    <sheet name="PayrollForNIDirctorAsProraAug" r:id="rId15" sheetId="11"/>
-    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
-    <sheet name="NIDirector_ProrataMonth6" r:id="rId17" sheetId="32"/>
-    <sheet name="PayrollForNIDirctorAsProraSep" r:id="rId18" sheetId="12"/>
-    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
-    <sheet name="NIDirector_ProrataMonth7" r:id="rId20" sheetId="33"/>
-    <sheet name="PayrollForNIDirctorAsProraOct" r:id="rId21" sheetId="13"/>
-    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
-    <sheet name="NIDirector_ProrataMonth8" r:id="rId23" sheetId="34"/>
-    <sheet name="PayrollForNIDirctorAsProraNov" r:id="rId24" sheetId="14"/>
-    <sheet name="TestReportsNovember" r:id="rId25" sheetId="23"/>
-    <sheet name="NIDirector_ProrataMonth9" r:id="rId26" sheetId="35"/>
-    <sheet name="PayrollForNIDirctorAsProraDec" r:id="rId27" sheetId="15"/>
-    <sheet name="TestReportsDecember" r:id="rId28" sheetId="24"/>
-    <sheet name="NIDirector_ProrataMonth10" r:id="rId29" sheetId="36"/>
-    <sheet name="PayrollForNIDirctorAsProraJan" r:id="rId30" sheetId="16"/>
-    <sheet name="TestReportsJanuary" r:id="rId31" sheetId="25"/>
-    <sheet name="NIDirector_ProrataMonth11" r:id="rId32" sheetId="37"/>
-    <sheet name="PayrollForNIDirctorAsProraFeb" r:id="rId33" sheetId="17"/>
-    <sheet name="TestReportsFebruary" r:id="rId34" sheetId="26"/>
-    <sheet name="NIDirector_ProrataMonth12" r:id="rId35" sheetId="4"/>
-    <sheet name="PayrollForNIDirctorAsProraMarch" r:id="rId36" sheetId="18"/>
-    <sheet name="TestReportsMarch" r:id="rId37" sheetId="27"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIDirector_ProrataMonth1" sheetId="2" r:id="rId2"/>
+    <sheet name="PayrollForNIDirctorAsProraApril" sheetId="3" r:id="rId3"/>
+    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
+    <sheet name="NIDirector_ProrataMonth2" sheetId="28" r:id="rId5"/>
+    <sheet name="PayrollForNIDirctorAsProraMay" sheetId="7" r:id="rId6"/>
+    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
+    <sheet name="NIDirector_ProrataMonth3" sheetId="29" r:id="rId8"/>
+    <sheet name="PayrollForNIDirctorAsProraJune" sheetId="9" r:id="rId9"/>
+    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
+    <sheet name="NIDirector_ProrataMonth4" sheetId="30" r:id="rId11"/>
+    <sheet name="PayrollForNIDirctorAsProraJuly" sheetId="10" r:id="rId12"/>
+    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
+    <sheet name="NIDirector_ProrataMonth5" sheetId="31" r:id="rId14"/>
+    <sheet name="PayrollForNIDirctorAsProraAug" sheetId="11" r:id="rId15"/>
+    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
+    <sheet name="NIDirector_ProrataMonth6" sheetId="32" r:id="rId17"/>
+    <sheet name="PayrollForNIDirctorAsProraSep" sheetId="12" r:id="rId18"/>
+    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
+    <sheet name="NIDirector_ProrataMonth7" sheetId="33" r:id="rId20"/>
+    <sheet name="PayrollForNIDirctorAsProraOct" sheetId="13" r:id="rId21"/>
+    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
+    <sheet name="NIDirector_ProrataMonth8" sheetId="34" r:id="rId23"/>
+    <sheet name="PayrollForNIDirctorAsProraNov" sheetId="14" r:id="rId24"/>
+    <sheet name="TestReportsNovember" sheetId="23" r:id="rId25"/>
+    <sheet name="NIDirector_ProrataMonth9" sheetId="35" r:id="rId26"/>
+    <sheet name="PayrollForNIDirctorAsProraDec" sheetId="15" r:id="rId27"/>
+    <sheet name="TestReportsDecember" sheetId="24" r:id="rId28"/>
+    <sheet name="NIDirector_ProrataMonth10" sheetId="36" r:id="rId29"/>
+    <sheet name="PayrollForNIDirctorAsProraJan" sheetId="16" r:id="rId30"/>
+    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId31"/>
+    <sheet name="NIDirector_ProrataMonth11" sheetId="37" r:id="rId32"/>
+    <sheet name="PayrollForNIDirctorAsProraFeb" sheetId="17" r:id="rId33"/>
+    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId34"/>
+    <sheet name="NIDirector_ProrataMonth12" sheetId="4" r:id="rId35"/>
+    <sheet name="PayrollForNIDirctorAsProraMarch" sheetId="18" r:id="rId36"/>
+    <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="116">
   <si>
     <t>TC</t>
   </si>
@@ -395,13 +400,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,55 +456,58 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,10 +518,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -546,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,9 +589,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,6 +641,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,7 +713,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -678,13 +722,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -694,7 +738,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -703,7 +747,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -712,7 +756,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -722,12 +766,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -758,7 +802,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -777,7 +821,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -789,22 +833,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -832,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -846,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -860,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -874,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -888,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -902,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.8" r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -916,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -930,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -944,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.8" r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -958,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -972,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -986,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -1000,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1014,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -1028,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1042,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -1056,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -1070,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.4" r="20" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -1084,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1098,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -1112,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="23" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -1126,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -1140,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="25" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1154,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="26" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -1168,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -1182,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="28" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1196,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.8" r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -1210,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -1224,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -1238,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -1252,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1266,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="34" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
@@ -1280,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -1294,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -1308,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -1322,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.8" r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
@@ -1337,35 +1381,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1452,31 +1496,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -1529,34 +1573,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1634,37 +1678,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1708,7 +1752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1775,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>48</v>
@@ -1748,33 +1792,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -1827,33 +1871,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1931,36 +1975,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="57.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2044,30 +2088,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2120,33 +2163,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2224,37 +2267,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.77734375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2298,7 +2341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2338,34 +2381,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="14.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2394,7 +2437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2416,30 +2459,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2492,33 +2535,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2559,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2596,36 +2639,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2709,32 +2752,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2787,33 +2830,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2891,36 +2934,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3004,32 +3047,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3058,7 +3101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3082,33 +3125,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3149,7 +3192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3186,36 +3229,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3259,7 +3302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3299,32 +3342,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3353,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3377,33 +3420,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3444,7 +3487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3481,35 +3524,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="61.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3550,7 +3593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3587,36 +3630,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="68.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3660,7 +3703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3700,32 +3743,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1E00-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3754,7 +3797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3778,34 +3821,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3846,7 +3889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3883,36 +3926,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3956,7 +3999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3996,34 +4039,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2100-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4052,7 +4095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4075,38 +4118,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="14"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="71.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="71.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4147,7 +4190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4184,37 +4227,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4258,7 +4301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4298,37 +4341,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4372,7 +4415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4412,31 +4455,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4465,7 +4508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4487,33 +4530,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4554,7 +4597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4591,37 +4634,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4665,7 +4708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4705,32 +4748,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4759,7 +4802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4783,34 +4826,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4851,7 +4894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4888,8 +4931,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -1,61 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="36" firstSheet="34" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_ProrataMonth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctorAsProraApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_ProrataMonth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctorAsProraMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_ProrataMonth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctorAsProraJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_ProrataMonth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctorAsProraJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_ProrataMonth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctorAsProraAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_ProrataMonth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctorAsProraSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
-    <sheet name="NIDirector_ProrataMonth7" sheetId="33" r:id="rId20"/>
-    <sheet name="PayrollForNIDirctorAsProraOct" sheetId="13" r:id="rId21"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
-    <sheet name="NIDirector_ProrataMonth8" sheetId="34" r:id="rId23"/>
-    <sheet name="PayrollForNIDirctorAsProraNov" sheetId="14" r:id="rId24"/>
-    <sheet name="TestReportsNovember" sheetId="23" r:id="rId25"/>
-    <sheet name="NIDirector_ProrataMonth9" sheetId="35" r:id="rId26"/>
-    <sheet name="PayrollForNIDirctorAsProraDec" sheetId="15" r:id="rId27"/>
-    <sheet name="TestReportsDecember" sheetId="24" r:id="rId28"/>
-    <sheet name="NIDirector_ProrataMonth10" sheetId="36" r:id="rId29"/>
-    <sheet name="PayrollForNIDirctorAsProraJan" sheetId="16" r:id="rId30"/>
-    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId31"/>
-    <sheet name="NIDirector_ProrataMonth11" sheetId="37" r:id="rId32"/>
-    <sheet name="PayrollForNIDirctorAsProraFeb" sheetId="17" r:id="rId33"/>
-    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId34"/>
-    <sheet name="NIDirector_ProrataMonth12" sheetId="4" r:id="rId35"/>
-    <sheet name="PayrollForNIDirctorAsProraMarch" sheetId="18" r:id="rId36"/>
-    <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_ProrataMonth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctorAsProraApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_ProrataMonth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctorAsProraMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_ProrataMonth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctorAsProraJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_ProrataMonth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctorAsProraJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_ProrataMonth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctorAsProraAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_ProrataMonth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctorAsProraSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
+    <sheet name="NIDirector_ProrataMonth7" r:id="rId20" sheetId="33"/>
+    <sheet name="PayrollForNIDirctorAsProraOct" r:id="rId21" sheetId="13"/>
+    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
+    <sheet name="NIDirector_ProrataMonth8" r:id="rId23" sheetId="34"/>
+    <sheet name="PayrollForNIDirctorAsProraNov" r:id="rId24" sheetId="14"/>
+    <sheet name="TestReportsNovember" r:id="rId25" sheetId="23"/>
+    <sheet name="NIDirector_ProrataMonth9" r:id="rId26" sheetId="35"/>
+    <sheet name="PayrollForNIDirctorAsProraDec" r:id="rId27" sheetId="15"/>
+    <sheet name="TestReportsDecember" r:id="rId28" sheetId="24"/>
+    <sheet name="NIDirector_ProrataMonth10" r:id="rId29" sheetId="36"/>
+    <sheet name="PayrollForNIDirctorAsProraJan" r:id="rId30" sheetId="16"/>
+    <sheet name="TestReportsJanuary" r:id="rId31" sheetId="25"/>
+    <sheet name="NIDirector_ProrataMonth11" r:id="rId32" sheetId="37"/>
+    <sheet name="PayrollForNIDirctorAsProraFeb" r:id="rId33" sheetId="17"/>
+    <sheet name="TestReportsFebruary" r:id="rId34" sheetId="26"/>
+    <sheet name="NIDirector_ProrataMonth12" r:id="rId35" sheetId="4"/>
+    <sheet name="PayrollForNIDirctorAsProraMarch" r:id="rId36" sheetId="18"/>
+    <sheet name="TestReportsMarch" r:id="rId37" sheetId="27"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="116">
   <si>
     <t>TC</t>
   </si>
@@ -408,7 +408,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,52 +457,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -518,10 +519,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -556,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +714,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -722,13 +723,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -738,7 +739,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -747,7 +748,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -756,7 +757,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -766,12 +767,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -802,7 +803,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -821,7 +822,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -833,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -842,10 +843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -876,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -890,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -904,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -918,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -932,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -946,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -960,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -974,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -988,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="23.45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="23" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27" r="26" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.9" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.9" r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
@@ -1381,35 +1382,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>46</v>
@@ -1496,15 +1497,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1513,14 +1514,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -1573,142 +1574,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1740,6 +1633,114 @@
         <v>28</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
@@ -1752,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1792,15 +1793,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1809,16 +1810,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -1871,33 +1872,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>103</v>
@@ -1975,36 +1976,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>104</v>
@@ -2088,15 +2089,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,12 +2106,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2163,33 +2164,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>50</v>
@@ -2267,37 +2268,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>51</v>
@@ -2381,15 +2382,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2398,14 +2399,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2459,13 +2460,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,15 +2475,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2535,33 +2536,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>53</v>
@@ -2639,36 +2640,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>55</v>
@@ -2752,15 +2753,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,15 +2770,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2830,33 +2831,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>58</v>
@@ -2934,36 +2935,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>60</v>
@@ -3047,15 +3048,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3064,15 +3065,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3125,33 +3126,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>63</v>
@@ -3229,36 +3230,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>105</v>
@@ -3342,15 +3343,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,15 +3360,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3420,33 +3421,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>32</v>
@@ -3524,35 +3525,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>106</v>
@@ -3630,36 +3631,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>107</v>
@@ -3743,15 +3744,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1E00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,15 +3761,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -3821,34 +3822,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>108</v>
@@ -3926,36 +3927,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>109</v>
@@ -4039,15 +4040,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2100-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4056,17 +4057,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4122,34 +4123,34 @@
       <c r="D4" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>110</v>
@@ -4227,37 +4228,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4341,37 +4342,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>37</v>
@@ -4455,14 +4456,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,15 +4472,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4530,33 +4531,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>44</v>
@@ -4634,37 +4635,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>40</v>
@@ -4748,32 +4749,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -4826,34 +4827,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>43</v>
@@ -4931,8 +4932,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -1,61 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="36" firstSheet="34" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" firstSheet="31" activeTab="31"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIDirector_ProrataMonth1" r:id="rId2" sheetId="2"/>
-    <sheet name="PayrollForNIDirctorAsProraApril" r:id="rId3" sheetId="3"/>
-    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
-    <sheet name="NIDirector_ProrataMonth2" r:id="rId5" sheetId="28"/>
-    <sheet name="PayrollForNIDirctorAsProraMay" r:id="rId6" sheetId="7"/>
-    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
-    <sheet name="NIDirector_ProrataMonth3" r:id="rId8" sheetId="29"/>
-    <sheet name="PayrollForNIDirctorAsProraJune" r:id="rId9" sheetId="9"/>
-    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
-    <sheet name="NIDirector_ProrataMonth4" r:id="rId11" sheetId="30"/>
-    <sheet name="PayrollForNIDirctorAsProraJuly" r:id="rId12" sheetId="10"/>
-    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
-    <sheet name="NIDirector_ProrataMonth5" r:id="rId14" sheetId="31"/>
-    <sheet name="PayrollForNIDirctorAsProraAug" r:id="rId15" sheetId="11"/>
-    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
-    <sheet name="NIDirector_ProrataMonth6" r:id="rId17" sheetId="32"/>
-    <sheet name="PayrollForNIDirctorAsProraSep" r:id="rId18" sheetId="12"/>
-    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
-    <sheet name="NIDirector_ProrataMonth7" r:id="rId20" sheetId="33"/>
-    <sheet name="PayrollForNIDirctorAsProraOct" r:id="rId21" sheetId="13"/>
-    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
-    <sheet name="NIDirector_ProrataMonth8" r:id="rId23" sheetId="34"/>
-    <sheet name="PayrollForNIDirctorAsProraNov" r:id="rId24" sheetId="14"/>
-    <sheet name="TestReportsNovember" r:id="rId25" sheetId="23"/>
-    <sheet name="NIDirector_ProrataMonth9" r:id="rId26" sheetId="35"/>
-    <sheet name="PayrollForNIDirctorAsProraDec" r:id="rId27" sheetId="15"/>
-    <sheet name="TestReportsDecember" r:id="rId28" sheetId="24"/>
-    <sheet name="NIDirector_ProrataMonth10" r:id="rId29" sheetId="36"/>
-    <sheet name="PayrollForNIDirctorAsProraJan" r:id="rId30" sheetId="16"/>
-    <sheet name="TestReportsJanuary" r:id="rId31" sheetId="25"/>
-    <sheet name="NIDirector_ProrataMonth11" r:id="rId32" sheetId="37"/>
-    <sheet name="PayrollForNIDirctorAsProraFeb" r:id="rId33" sheetId="17"/>
-    <sheet name="TestReportsFebruary" r:id="rId34" sheetId="26"/>
-    <sheet name="NIDirector_ProrataMonth12" r:id="rId35" sheetId="4"/>
-    <sheet name="PayrollForNIDirctorAsProraMarch" r:id="rId36" sheetId="18"/>
-    <sheet name="TestReportsMarch" r:id="rId37" sheetId="27"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIDirector_ProrataMonth1" sheetId="2" r:id="rId2"/>
+    <sheet name="PayrollForNIDirctorAsProraApril" sheetId="3" r:id="rId3"/>
+    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
+    <sheet name="NIDirector_ProrataMonth2" sheetId="28" r:id="rId5"/>
+    <sheet name="PayrollForNIDirctorAsProraMay" sheetId="7" r:id="rId6"/>
+    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
+    <sheet name="NIDirector_ProrataMonth3" sheetId="29" r:id="rId8"/>
+    <sheet name="PayrollForNIDirctorAsProraJune" sheetId="9" r:id="rId9"/>
+    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
+    <sheet name="NIDirector_ProrataMonth4" sheetId="30" r:id="rId11"/>
+    <sheet name="PayrollForNIDirctorAsProraJuly" sheetId="10" r:id="rId12"/>
+    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
+    <sheet name="NIDirector_ProrataMonth5" sheetId="31" r:id="rId14"/>
+    <sheet name="PayrollForNIDirctorAsProraAug" sheetId="11" r:id="rId15"/>
+    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
+    <sheet name="NIDirector_ProrataMonth6" sheetId="32" r:id="rId17"/>
+    <sheet name="PayrollForNIDirctorAsProraSep" sheetId="12" r:id="rId18"/>
+    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
+    <sheet name="NIDirector_ProrataMonth7" sheetId="33" r:id="rId20"/>
+    <sheet name="PayrollForNIDirctorAsProraOct" sheetId="13" r:id="rId21"/>
+    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
+    <sheet name="NIDirector_ProrataMonth8" sheetId="34" r:id="rId23"/>
+    <sheet name="PayrollForNIDirctorAsProraNov" sheetId="14" r:id="rId24"/>
+    <sheet name="TestReportsNovember" sheetId="23" r:id="rId25"/>
+    <sheet name="NIDirector_ProrataMonth9" sheetId="35" r:id="rId26"/>
+    <sheet name="PayrollForNIDirctorAsProraDec" sheetId="15" r:id="rId27"/>
+    <sheet name="TestReportsDecember" sheetId="24" r:id="rId28"/>
+    <sheet name="NIDirector_ProrataMonth10" sheetId="36" r:id="rId29"/>
+    <sheet name="PayrollForNIDirctorAsProraJan" sheetId="16" r:id="rId30"/>
+    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId31"/>
+    <sheet name="NIDirector_ProrataMonth11" sheetId="37" r:id="rId32"/>
+    <sheet name="PayrollForNIDirctorAsProraFeb" sheetId="17" r:id="rId33"/>
+    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId34"/>
+    <sheet name="NIDirector_ProrataMonth12" sheetId="4" r:id="rId35"/>
+    <sheet name="PayrollForNIDirctorAsProraMarch" sheetId="18" r:id="rId36"/>
+    <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="115">
   <si>
     <t>TC</t>
   </si>
@@ -144,12 +139,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Payroll-0903</t>
-  </si>
-  <si>
     <t>April-2017</t>
   </si>
   <si>
@@ -357,9 +346,6 @@
     <t>DO NOT TOUCH - AUTOMATION DIR PRORATA</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -399,17 +385,22 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 601</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRPR EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRPR_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,52 +448,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,10 +507,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -557,7 +545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,26 +578,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,23 +613,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,7 +668,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -723,13 +677,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -739,7 +693,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -748,7 +702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -757,7 +711,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -767,12 +721,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -803,7 +757,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -822,7 +776,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -834,22 +788,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,8 +817,8 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -873,41 +827,41 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -919,26 +873,26 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>97</v>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -947,9 +901,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>39</v>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -957,30 +911,30 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>97</v>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -989,9 +943,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -999,30 +953,30 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>97</v>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1031,9 +985,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="26.45" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>64</v>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1041,30 +995,30 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>97</v>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1073,9 +1027,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1083,30 +1037,30 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>97</v>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1115,9 +1069,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>66</v>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1125,30 +1079,30 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="21" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="22" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1157,9 +1111,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="23" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>67</v>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1167,30 +1121,30 @@
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="24" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="25" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>97</v>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1199,9 +1153,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="26" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>68</v>
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1209,30 +1163,30 @@
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="28" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>97</v>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1241,9 +1195,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.9" r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>69</v>
+    <row r="29" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1251,30 +1205,30 @@
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="30" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="31" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>97</v>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1283,9 +1237,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>70</v>
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1293,31 +1247,31 @@
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="33" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="34" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1325,9 +1279,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>71</v>
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -1335,30 +1289,30 @@
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" r="36" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -1367,9 +1321,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.9" r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>72</v>
+    <row r="38" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -1377,151 +1331,151 @@
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>112</v>
+      <c r="L2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1550,23 +1504,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1574,252 +1528,252 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1848,23 +1802,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>527.88</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1872,246 +1826,246 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="38.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2140,23 +2094,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2164,252 +2118,252 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2438,18 +2392,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
         <v>13200</v>
       </c>
       <c r="F2" t="s">
@@ -2460,30 +2414,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2512,23 +2466,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>300000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2536,249 +2490,249 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2807,23 +2761,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>73499.88</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2831,249 +2785,249 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3102,23 +3056,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3126,249 +3080,249 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3397,23 +3351,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3421,355 +3375,355 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3798,23 +3752,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4">
         <v>30000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3822,252 +3776,252 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4096,23 +4050,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4">
         <v>30000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4120,367 +4074,366 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="14"/>
+      <c r="D4" s="11"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4509,21 +4462,21 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
         <v>13200</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4531,250 +4484,250 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4803,23 +4756,23 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6">
         <v>82896.479999999996</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4827,113 +4780,113 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -4,53 +4,53 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" firstSheet="31" activeTab="31"/>
+    <workbookView activeTab="31" firstSheet="31" windowHeight="4452" windowWidth="14340" xWindow="396" yWindow="96"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_ProrataMonth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctorAsProraApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_ProrataMonth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctorAsProraMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_ProrataMonth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctorAsProraJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_ProrataMonth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctorAsProraJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_ProrataMonth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctorAsProraAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_ProrataMonth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctorAsProraSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
-    <sheet name="NIDirector_ProrataMonth7" sheetId="33" r:id="rId20"/>
-    <sheet name="PayrollForNIDirctorAsProraOct" sheetId="13" r:id="rId21"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
-    <sheet name="NIDirector_ProrataMonth8" sheetId="34" r:id="rId23"/>
-    <sheet name="PayrollForNIDirctorAsProraNov" sheetId="14" r:id="rId24"/>
-    <sheet name="TestReportsNovember" sheetId="23" r:id="rId25"/>
-    <sheet name="NIDirector_ProrataMonth9" sheetId="35" r:id="rId26"/>
-    <sheet name="PayrollForNIDirctorAsProraDec" sheetId="15" r:id="rId27"/>
-    <sheet name="TestReportsDecember" sheetId="24" r:id="rId28"/>
-    <sheet name="NIDirector_ProrataMonth10" sheetId="36" r:id="rId29"/>
-    <sheet name="PayrollForNIDirctorAsProraJan" sheetId="16" r:id="rId30"/>
-    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId31"/>
-    <sheet name="NIDirector_ProrataMonth11" sheetId="37" r:id="rId32"/>
-    <sheet name="PayrollForNIDirctorAsProraFeb" sheetId="17" r:id="rId33"/>
-    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId34"/>
-    <sheet name="NIDirector_ProrataMonth12" sheetId="4" r:id="rId35"/>
-    <sheet name="PayrollForNIDirctorAsProraMarch" sheetId="18" r:id="rId36"/>
-    <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_ProrataMonth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctorAsProraApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_ProrataMonth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctorAsProraMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_ProrataMonth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctorAsProraJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_ProrataMonth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctorAsProraJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_ProrataMonth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctorAsProraAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_ProrataMonth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctorAsProraSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
+    <sheet name="NIDirector_ProrataMonth7" r:id="rId20" sheetId="33"/>
+    <sheet name="PayrollForNIDirctorAsProraOct" r:id="rId21" sheetId="13"/>
+    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
+    <sheet name="NIDirector_ProrataMonth8" r:id="rId23" sheetId="34"/>
+    <sheet name="PayrollForNIDirctorAsProraNov" r:id="rId24" sheetId="14"/>
+    <sheet name="TestReportsNovember" r:id="rId25" sheetId="23"/>
+    <sheet name="NIDirector_ProrataMonth9" r:id="rId26" sheetId="35"/>
+    <sheet name="PayrollForNIDirctorAsProraDec" r:id="rId27" sheetId="15"/>
+    <sheet name="TestReportsDecember" r:id="rId28" sheetId="24"/>
+    <sheet name="NIDirector_ProrataMonth10" r:id="rId29" sheetId="36"/>
+    <sheet name="PayrollForNIDirctorAsProraJan" r:id="rId30" sheetId="16"/>
+    <sheet name="TestReportsJanuary" r:id="rId31" sheetId="25"/>
+    <sheet name="NIDirector_ProrataMonth11" r:id="rId32" sheetId="37"/>
+    <sheet name="PayrollForNIDirctorAsProraFeb" r:id="rId33" sheetId="17"/>
+    <sheet name="TestReportsFebruary" r:id="rId34" sheetId="26"/>
+    <sheet name="NIDirector_ProrataMonth12" r:id="rId35" sheetId="4"/>
+    <sheet name="PayrollForNIDirctorAsProraMarch" r:id="rId36" sheetId="18"/>
+    <sheet name="TestReportsMarch" r:id="rId37" sheetId="27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="115">
   <si>
     <t>TC</t>
   </si>
@@ -401,6 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,49 +449,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +508,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -668,7 +669,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -677,13 +678,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -693,7 +694,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -702,7 +703,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -711,7 +712,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -721,12 +722,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -757,7 +758,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -776,7 +777,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -788,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -797,13 +798,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -831,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -845,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
@@ -859,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -873,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
@@ -887,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
@@ -901,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -915,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
@@ -929,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
@@ -943,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.95" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -957,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -971,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>86</v>
       </c>
@@ -985,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="16" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>87</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="18" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="19" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="23.4" r="20" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="21" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="22" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>89</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="23" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>65</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="24" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="25" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>90</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27" r="26" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="27" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="28" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.95" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="30" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="31" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>92</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="33" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="34" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="36" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="22.95" r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
@@ -1336,13 +1337,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1351,20 +1352,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -1451,15 +1452,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1468,14 +1469,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -1528,12 +1529,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1542,20 +1543,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -1633,14 +1634,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1649,21 +1650,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -1747,15 +1748,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1764,16 +1765,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -1826,12 +1827,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1840,19 +1841,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -1930,14 +1931,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1946,20 +1947,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -2043,15 +2044,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2060,12 +2061,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -2118,12 +2119,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2132,19 +2133,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -2222,14 +2223,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2238,21 +2239,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -2336,15 +2337,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2353,17 +2354,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2414,13 +2415,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2429,15 +2430,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -2490,12 +2491,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,19 +2505,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -2594,14 +2595,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2610,20 +2611,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -2707,15 +2708,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,15 +2725,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -2785,12 +2786,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,19 +2800,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -2889,14 +2890,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,20 +2906,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3002,15 +3003,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,15 +3020,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -3080,12 +3081,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,19 +3095,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3184,14 +3185,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3200,20 +3201,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3297,15 +3298,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3314,15 +3315,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -3375,12 +3376,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3389,19 +3390,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3479,14 +3480,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,19 +3496,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3585,14 +3586,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3601,20 +3602,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3698,15 +3699,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3715,15 +3716,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -3776,12 +3777,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,20 +3791,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3881,14 +3882,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,20 +3898,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -3994,15 +3995,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4011,17 +4012,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -4077,13 +4078,13 @@
       <c r="D4" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4092,19 +4093,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -4182,14 +4183,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4198,21 +4199,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -4296,14 +4297,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4312,20 +4313,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -4409,14 +4410,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4425,15 +4426,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -4484,12 +4485,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4498,19 +4499,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -4588,14 +4589,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4604,21 +4605,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -4702,14 +4703,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4718,16 +4719,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -4780,13 +4781,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4795,19 +4796,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
@@ -4885,8 +4886,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="31" firstSheet="31" windowHeight="4452" windowWidth="14340" xWindow="396" yWindow="96"/>
+    <workbookView activeTab="36" firstSheet="34" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="114">
   <si>
     <t>TC</t>
   </si>
@@ -146,9 +151,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
@@ -400,7 +402,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -546,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,9 +581,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,6 +633,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -796,15 +832,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,9 +868,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -846,9 +882,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -860,9 +896,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -874,9 +910,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -890,10 +926,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -902,9 +938,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.95" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -916,9 +952,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -930,12 +966,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -944,9 +980,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.95" r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -958,9 +994,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -972,12 +1008,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -986,9 +1022,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1000,9 +1036,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -1014,12 +1050,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="16" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1030,7 +1066,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="27.6" r="17" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1042,9 +1078,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="18" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1056,12 +1092,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="19" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1070,9 +1106,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.4" r="20" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="23.45" r="20" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1084,9 +1120,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="21" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>14</v>
@@ -1098,12 +1134,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="22" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1114,7 +1150,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="23" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1126,9 +1162,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="24" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -1140,12 +1176,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="25" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1156,7 +1192,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="26" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1168,9 +1204,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="27" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -1182,12 +1218,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="28" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1196,9 +1232,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.95" r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.9" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1210,9 +1246,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="30" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -1224,12 +1260,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="31" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1240,7 +1276,7 @@
     </row>
     <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1252,9 +1288,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="33" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -1266,12 +1302,12 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="34" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="34" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1280,9 +1316,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -1294,9 +1330,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="36" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -1308,13 +1344,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,9 +1358,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.95" r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="22.9" r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -1350,22 +1386,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1409,45 +1445,45 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1467,13 +1503,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1507,16 +1543,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>0.12</v>
@@ -1541,22 +1577,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1597,33 +1633,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -1648,23 +1684,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1696,7 +1732,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1708,39 +1744,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -1763,15 +1799,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1805,16 +1841,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>527.88</v>
@@ -1839,21 +1875,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1894,33 +1930,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -1945,22 +1981,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="57.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +2028,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2004,39 +2040,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -2059,11 +2095,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,16 +2133,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>0.12</v>
@@ -2131,21 +2167,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2186,33 +2222,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -2237,23 +2273,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2321,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2297,39 +2333,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -2352,19 +2388,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2393,15 +2429,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6">
@@ -2428,14 +2464,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2469,16 +2505,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>300000</v>
@@ -2503,21 +2539,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2558,33 +2594,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -2609,22 +2645,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2668,39 +2704,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -2723,14 +2759,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2764,16 +2800,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>73499.88</v>
@@ -2798,21 +2834,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2853,33 +2889,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -2904,22 +2940,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2951,7 +2987,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2963,39 +2999,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -3018,14 +3054,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3059,16 +3095,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>0.12</v>
@@ -3093,21 +3129,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3148,33 +3184,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -3199,22 +3235,22 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="74.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3246,7 +3282,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -3258,39 +3294,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -3313,14 +3349,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3354,16 +3390,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>3</v>
@@ -3388,21 +3424,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="63.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3443,15 +3479,15 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
@@ -3460,13 +3496,13 @@
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>30</v>
@@ -3494,21 +3530,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="61.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3549,33 +3585,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -3600,22 +3636,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="68.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3647,7 +3683,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -3659,39 +3695,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -3710,18 +3746,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3755,16 +3791,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4">
         <v>30000</v>
@@ -3789,22 +3825,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="67.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3845,33 +3881,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -3892,26 +3928,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -3955,39 +3991,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -4010,15 +4046,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4053,16 +4089,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4">
         <v>30000</v>
@@ -4091,21 +4127,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="71.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4146,33 +4182,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -4193,27 +4229,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -4257,39 +4293,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -4311,19 +4347,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4358,7 +4394,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -4370,15 +4406,15 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
@@ -4387,22 +4423,22 @@
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -4424,14 +4460,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4465,13 +4501,13 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6">
@@ -4497,21 +4533,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4552,33 +4588,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
@@ -4603,23 +4639,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4651,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -4663,39 +4699,39 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>4</v>
@@ -4717,15 +4753,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4759,16 +4795,16 @@
     </row>
     <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6">
         <v>82896.479999999996</v>
@@ -4794,21 +4830,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="65.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4849,33 +4885,33 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>31</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Prorata201718.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="114">
   <si>
     <t>TC</t>
   </si>
